--- a/wordpress/Documentation/test_report.xlsx
+++ b/wordpress/Documentation/test_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teodc\OneDrive\Desktop\job 2025\testjob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3423CBE-FD44-47D4-83E8-1BE4373DFDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF4B4640-73DE-42E9-8434-C57047D4CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5030B80F-AAED-4384-BEC6-5A1E183D1B3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -412,15 +412,25 @@
 3. Appropriate validation messages
 4. Failed. Not expected</t>
   </si>
+  <si>
+    <t>Test Status (Green Pass, Red Failed)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,8 +462,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +480,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,26 +546,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E252C-F83A-41B3-AC93-0CFB8E2DCF64}">
-  <dimension ref="B22:L47"/>
+  <dimension ref="B22:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,8 +922,10 @@
     <col min="7" max="7" width="58.1796875" customWidth="1"/>
     <col min="8" max="8" width="42.26953125" customWidth="1"/>
     <col min="9" max="9" width="67.90625" customWidth="1"/>
-    <col min="12" max="12" width="30.26953125" customWidth="1"/>
-    <col min="13" max="13" width="33.453125" customWidth="1"/>
+    <col min="10" max="10" width="40.90625" customWidth="1"/>
+    <col min="12" max="12" width="22.1796875" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" customWidth="1"/>
+    <col min="14" max="14" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="22" spans="5:8" ht="17.5" x14ac:dyDescent="0.35">
@@ -975,7 +1012,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1001,16 +1038,19 @@
         <v>7</v>
       </c>
       <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" t="s">
         <v>8</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>9</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>1</v>
       </c>
@@ -1035,17 +1075,18 @@
       <c r="I38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" t="s">
         <v>15</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>16</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="232" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1070,17 +1111,18 @@
       <c r="I39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="11"/>
+      <c r="K39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>20</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>3</v>
       </c>
@@ -1105,17 +1147,18 @@
       <c r="I40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" t="s">
         <v>24</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>20</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>4</v>
       </c>
@@ -1140,17 +1183,18 @@
       <c r="I41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="11"/>
+      <c r="K41" t="s">
         <v>24</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>20</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>5</v>
       </c>
@@ -1175,17 +1219,18 @@
       <c r="I42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="11"/>
+      <c r="K42" t="s">
         <v>15</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>30</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="116" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" ht="116" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>6</v>
       </c>
@@ -1210,17 +1255,18 @@
       <c r="I43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" t="s">
         <v>24</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>35</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>7</v>
       </c>
@@ -1245,17 +1291,18 @@
       <c r="I44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="12"/>
+      <c r="K44" t="s">
         <v>39</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>40</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>8</v>
       </c>
@@ -1280,17 +1327,18 @@
       <c r="I45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="11"/>
+      <c r="K45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>16</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>9</v>
       </c>
@@ -1315,17 +1363,18 @@
       <c r="I46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" t="s">
         <v>15</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>16</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>10</v>
       </c>
@@ -1350,13 +1399,14 @@
       <c r="I47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="11"/>
+      <c r="K47" t="s">
         <v>24</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>35</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>27</v>
       </c>
     </row>
